--- a/rough BoM.xlsx
+++ b/rough BoM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Secction</t>
   </si>
@@ -36,9 +36,6 @@
     <t>requirement</t>
   </si>
   <si>
-    <t>defininitely needed</t>
-  </si>
-  <si>
     <t>INA219</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>boost converter (battery)</t>
   </si>
   <si>
-    <t>linear regulator (battery)</t>
-  </si>
-  <si>
     <t>h bridge IC (motors)</t>
   </si>
   <si>
@@ -85,6 +79,24 @@
   </si>
   <si>
     <t>USB C PD</t>
+  </si>
+  <si>
+    <t>linear regulator (battery) (type LDO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boost </t>
+  </si>
+  <si>
+    <t>base cost (USD)</t>
+  </si>
+  <si>
+    <t>extended? (+$3)</t>
+  </si>
+  <si>
+    <t>Li battery charger</t>
+  </si>
+  <si>
+    <t>most likely needed</t>
   </si>
 </sst>
 </file>
@@ -423,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N26"/>
+  <dimension ref="A2:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,26 +446,27 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -461,79 +474,92 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <f>SUM(D5:D10)</f>
+        <f>SUM(D5:E10)</f>
         <v>0</v>
       </c>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -541,30 +567,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
-        <f>SUM(D16:D21)</f>
+        <f>SUM(D16:E21)</f>
         <v>0</v>
       </c>
       <c r="E22" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -572,20 +602,22 @@
         <f>D22+D11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -593,6 +625,7 @@
         <f>D25-D24</f>
         <v>56.5</v>
       </c>
+      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rough BoM.xlsx
+++ b/rough BoM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Secction</t>
   </si>
@@ -75,18 +75,12 @@
     <t>Sub-total</t>
   </si>
   <si>
-    <t>USB C header 6b</t>
-  </si>
-  <si>
     <t>USB C PD</t>
   </si>
   <si>
     <t>linear regulator (battery) (type LDO)</t>
   </si>
   <si>
-    <t xml:space="preserve">Boost </t>
-  </si>
-  <si>
     <t>base cost (USD)</t>
   </si>
   <si>
@@ -97,13 +91,37 @@
   </si>
   <si>
     <t>most likely needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INA219AIDCNR </t>
+  </si>
+  <si>
+    <t>Charging</t>
+  </si>
+  <si>
+    <t>BQ24074RGTR</t>
+  </si>
+  <si>
+    <t>TYPE-C16PIN</t>
+  </si>
+  <si>
+    <t>USB C header /6b</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/TexasInstruments-INA219AIDCNR/C87469</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/ShouHan-TYPEC16PIN/C393939</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/TexasInstruments-BQ24074RGTR/C54313</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +133,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,17 +172,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,17 +464,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O26"/>
+  <dimension ref="A2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -455,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -477,24 +506,36 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
@@ -505,7 +546,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -519,113 +572,131 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <f>SUM(D5:E11)</f>
+        <v>10.402200000000001</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <f>SUM(D5:E10)</f>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <f>SUM(D17:E22)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <f>SUM(D16:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <f>D22+D11</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
-        <v>56.5</v>
+        <f>D23+D12</f>
+        <v>10.402200000000001</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
-        <f>D25-D24</f>
         <v>56.5</v>
       </c>
       <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <f>D26-D25</f>
+        <v>46.097799999999999</v>
+      </c>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rough BoM.xlsx
+++ b/rough BoM.xlsx
@@ -102,19 +102,19 @@
     <t>BQ24074RGTR</t>
   </si>
   <si>
-    <t>TYPE-C16PIN</t>
-  </si>
-  <si>
     <t>USB C header /6b</t>
   </si>
   <si>
     <t>https://jlcpcb.com/partdetail/TexasInstruments-INA219AIDCNR/C87469</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/partdetail/ShouHan-TYPEC16PIN/C393939</t>
-  </si>
-  <si>
     <t>https://jlcpcb.com/partdetail/TexasInstruments-BQ24074RGTR/C54313</t>
+  </si>
+  <si>
+    <t>TYPE-C 6P LTH6.5</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/ShouHan-TYPE_C_6P_LTH65/C5187463</t>
   </si>
 </sst>
 </file>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O27"/>
+  <dimension ref="A2:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,8 +534,8 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
@@ -546,19 +546,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>6.4199999999999993E-2</v>
+        <v>7.8200000000000006E-2</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -595,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -604,102 +604,111 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <f>SUM(D5:E11)</f>
-        <v>10.402200000000001</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <f>SUM(D5:E13)</f>
+        <v>10.4162</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <f>SUM(D17:E22)</f>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <f>SUM(D19:E24)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
-        <f>D23+D12</f>
-        <v>10.402200000000001</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
-        <v>56.5</v>
-      </c>
-      <c r="E26" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
-        <f>D26-D25</f>
-        <v>46.097799999999999</v>
+        <f>D25+D14</f>
+        <v>10.4162</v>
       </c>
       <c r="E27" s="2"/>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <f>D28-D27</f>
+        <v>46.083799999999997</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/rough BoM.xlsx
+++ b/rough BoM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Secction</t>
   </si>
@@ -99,22 +99,34 @@
     <t>Charging</t>
   </si>
   <si>
-    <t>BQ24074RGTR</t>
-  </si>
-  <si>
     <t>USB C header /6b</t>
   </si>
   <si>
     <t>https://jlcpcb.com/partdetail/TexasInstruments-INA219AIDCNR/C87469</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/partdetail/TexasInstruments-BQ24074RGTR/C54313</t>
-  </si>
-  <si>
     <t>TYPE-C 6P LTH6.5</t>
   </si>
   <si>
     <t>https://jlcpcb.com/partdetail/ShouHan-TYPE_C_6P_LTH65/C5187463</t>
+  </si>
+  <si>
+    <t>TP4056</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/TPOWER-TP4056/C382139</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>Buck dc-dc</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/TexasInstruments-LM2596SX_5_0NOPB/C10002</t>
+  </si>
+  <si>
+    <t>LM2596SX-5.0/NOPB</t>
   </si>
 </sst>
 </file>
@@ -176,13 +188,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -467,7 +481,7 @@
   <dimension ref="A2:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +539,7 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D5">
@@ -535,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
@@ -546,10 +560,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D6">
         <v>7.8200000000000006E-2</v>
@@ -558,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -574,51 +588,57 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
+      <c r="C7" s="1"/>
       <c r="L7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3</v>
+      <c r="A8" t="s">
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.74250000000000005</v>
+        <v>0.09</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="3">
         <f>SUM(D5:E13)</f>
-        <v>10.4162</v>
+        <v>10.677199999999999</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -626,15 +646,19 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+    </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -677,7 +701,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <f>D25+D14</f>
-        <v>10.4162</v>
+        <v>10.677199999999999</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -700,15 +724,16 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2">
         <f>D28-D27</f>
-        <v>46.083799999999997</v>
+        <v>45.822800000000001</v>
       </c>
       <c r="E29" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/rough BoM.xlsx
+++ b/rough BoM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Secction</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>LM2596SX-5.0/NOPB</t>
+  </si>
+  <si>
+    <t>HUSB237</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Hynetek-HUSB237_AA001DN06R/C22373734</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
   <dimension ref="A2:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +594,18 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>0.19</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
       <c r="L7" t="s">
         <v>15</v>
       </c>
@@ -617,6 +634,9 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -625,6 +645,9 @@
       </c>
       <c r="D9">
         <v>0.91349999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -638,7 +661,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="3">
         <f>SUM(D5:E13)</f>
-        <v>10.677199999999999</v>
+        <v>13.8672</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -701,7 +724,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <f>D25+D14</f>
-        <v>10.677199999999999</v>
+        <v>13.8672</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -724,7 +747,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2">
         <f>D28-D27</f>
-        <v>45.822800000000001</v>
+        <v>42.632800000000003</v>
       </c>
       <c r="E29" s="2"/>
     </row>

--- a/rough BoM.xlsx
+++ b/rough BoM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Secction</t>
   </si>
@@ -133,6 +133,24 @@
   </si>
   <si>
     <t>https://jlcpcb.com/partdetail/Hynetek-HUSB237_AA001DN06R/C22373734</t>
+  </si>
+  <si>
+    <t>analog switch</t>
+  </si>
+  <si>
+    <t>SN74LVC1G3157DCKR</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/TexasInstruments-SN74LVC1G3157DCKR/C38663</t>
+  </si>
+  <si>
+    <t>On/Off switch</t>
+  </si>
+  <si>
+    <t>SK22D15L5</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/XkbConnection-SK22D15L5/C2884795</t>
   </si>
 </sst>
 </file>
@@ -487,14 +505,14 @@
   <dimension ref="A2:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -626,7 +644,7 @@
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L8" t="s">
@@ -651,6 +669,26 @@
       </c>
       <c r="F9" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -661,7 +699,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="3">
         <f>SUM(D5:E13)</f>
-        <v>13.8672</v>
+        <v>16.918500000000002</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -703,6 +741,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>0.31</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>17</v>
@@ -711,7 +769,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3">
         <f>SUM(D19:E24)</f>
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -724,7 +782,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <f>D25+D14</f>
-        <v>13.8672</v>
+        <v>20.2285</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -747,7 +805,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2">
         <f>D28-D27</f>
-        <v>42.632800000000003</v>
+        <v>36.271500000000003</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -755,8 +813,9 @@
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1"/>
     <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/rough BoM.xlsx
+++ b/rough BoM.xlsx
@@ -502,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O29"/>
+  <dimension ref="A2:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,123 +691,123 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3">
-        <f>SUM(D5:E13)</f>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="3">
+        <f>SUM(D5:E14)</f>
         <v>16.918500000000002</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>0.31</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
-        <f>SUM(D19:E24)</f>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
+        <f>SUM(D20:E25)</f>
         <v>3.31</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2">
-        <f>D25+D14</f>
-        <v>20.2285</v>
-      </c>
-      <c r="E27" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
-        <v>56.5</v>
+        <f>D26+D15</f>
+        <v>20.2285</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
-        <f>D28-D27</f>
+        <v>56.5</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <f>D29-D28</f>
         <v>36.271500000000003</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/rough BoM.xlsx
+++ b/rough BoM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Secction</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>https://jlcpcb.com/partdetail/XkbConnection-SK22D15L5/C2884795</t>
+  </si>
+  <si>
+    <t>shunt resistor</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/ta_iTech-RLP25FEER200/C459674</t>
+  </si>
+  <si>
+    <t>RLP25FEER200</t>
   </si>
 </sst>
 </file>
@@ -502,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O30"/>
+  <dimension ref="A2:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,123 +700,143 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>0.05</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="3">
-        <f>SUM(D5:E14)</f>
-        <v>16.918500000000002</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="3">
+        <f>SUM(D5:E15)</f>
+        <v>19.968500000000002</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>0.31</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>3</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
-        <f>SUM(D20:E25)</f>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <f>SUM(D21:E26)</f>
         <v>3.31</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2">
-        <f>D26+D15</f>
-        <v>20.2285</v>
-      </c>
-      <c r="E28" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
-        <v>56.5</v>
+        <f>D27+D16</f>
+        <v>23.278500000000001</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
-        <f>D29-D28</f>
-        <v>36.271500000000003</v>
+        <v>56.5</v>
       </c>
       <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <f>D30-D29</f>
+        <v>33.221499999999999</v>
+      </c>
+      <c r="E31" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/rough BoM.xlsx
+++ b/rough BoM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Secction</t>
   </si>
@@ -160,6 +160,36 @@
   </si>
   <si>
     <t>RLP25FEER200</t>
+  </si>
+  <si>
+    <t>5V out</t>
+  </si>
+  <si>
+    <t>MT3608</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/xi_an_AerosemiTech-MT3608/C84817</t>
+  </si>
+  <si>
+    <t>Discrete components</t>
+  </si>
+  <si>
+    <t>cap (5V boosted)</t>
+  </si>
+  <si>
+    <t>10k resistor</t>
+  </si>
+  <si>
+    <t>1206W4F1002T5E</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/13537-CL31A226KAHNNNE/C12891</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/18590-1206W4F1002T5E/C17902</t>
+  </si>
+  <si>
+    <t>CL31A226KAHNNNE</t>
   </si>
 </sst>
 </file>
@@ -511,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O31"/>
+  <dimension ref="A2:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,7 +726,7 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -720,131 +750,182 @@
         <v>45</v>
       </c>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="3">
-        <f>SUM(D5:E15)</f>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3">
+        <f>SUM(D5:E17)</f>
         <v>19.968500000000002</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>0.31</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>3</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <v>0.06</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
-        <f>SUM(D21:E26)</f>
-        <v>3.31</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <f>D27+D16</f>
-        <v>23.278500000000001</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <v>56.5</v>
-      </c>
-      <c r="E30" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <f>SUM(D23:E28)</f>
+        <v>6.37</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
-        <f>D30-D29</f>
-        <v>33.221499999999999</v>
+        <f>D29+D18</f>
+        <v>26.338500000000003</v>
       </c>
       <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <f>D32-D31</f>
+        <v>30.161499999999997</v>
+      </c>
+      <c r="E33" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1"/>
     <hyperlink ref="F6" r:id="rId2"/>
     <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="F10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>